--- a/week2/sorting.xlsx
+++ b/week2/sorting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Quicksort</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>Uitvoertijd</t>
+  </si>
+  <si>
+    <t>0031339</t>
+  </si>
+  <si>
+    <t>0077577</t>
+  </si>
+  <si>
+    <t>93900</t>
+  </si>
+  <si>
+    <t>87851142</t>
   </si>
 </sst>
 </file>
@@ -85,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -97,9 +109,7 @@
       <left style="medium">
         <color rgb="FFECF0F1"/>
       </left>
-      <right style="medium">
-        <color rgb="FFECF0F1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color rgb="FFECF0F1"/>
       </top>
@@ -116,9 +126,16 @@
       <top style="medium">
         <color rgb="FFECF0F1"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFECF0F1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFECF0F1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -129,59 +146,114 @@
       <top style="medium">
         <color rgb="FFECF0F1"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFECF0F1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFECF0F1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FFECF0F1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFECF0F1"/>
-      </top>
-      <bottom/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFECF0F1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FFECF0F1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FFECF0F1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFECF0F1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFECF0F1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFECF0F1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFECF0F1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFECF0F1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFECF0F1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFECF0F1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFECF0F1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFECF0F1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFECF0F1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFECF0F1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FFECF0F1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FFECF0F1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FFECF0F1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -189,25 +261,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -505,117 +590,141 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="29.25" thickBot="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="B4" s="9">
+        <v>458883</v>
+      </c>
+      <c r="C4" s="10">
+        <v>21671</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9">
+        <v>5044</v>
+      </c>
+      <c r="G4" s="10">
+        <v>8730</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="B5" s="9">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3751</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9">
+        <v>9976</v>
+      </c>
+      <c r="G5" s="10">
+        <v>9976</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="30.75" thickBot="1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/week2/sorting.xlsx
+++ b/week2/sorting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Quicksort</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>87851142</t>
+  </si>
+  <si>
+    <t>238668</t>
+  </si>
+  <si>
+    <t>360813</t>
   </si>
 </sst>
 </file>
@@ -70,17 +76,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF2C3E50"/>
-      <name val="Helvetica"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF2C3E50"/>
-      <name val="Helvetica"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -266,33 +274,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -590,7 +602,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,114 +629,126 @@
       <c r="H1" s="2"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:9" ht="32.25" thickBot="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>458883</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>21671</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10">
         <v>5044</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>8730</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>251175</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>12</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>3751</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10">
         <v>9976</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <v>9976</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>251175</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/week2/sorting.xlsx
+++ b/week2/sorting.xlsx
@@ -284,25 +284,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -602,7 +602,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,47 +631,47 @@
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="32.25" thickBot="1">
       <c r="A3" s="7"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -679,68 +679,68 @@
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>458883</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>21671</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8">
         <v>5044</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <v>8730</v>
       </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>251175</v>
+      <c r="H4" s="8">
+        <v>999000</v>
+      </c>
+      <c r="I4" s="9">
+        <v>999000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>12</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>3751</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8">
         <v>9976</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>9976</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>251175</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="5" t="s">

--- a/week2/sorting.xlsx
+++ b/week2/sorting.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="6225"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Quicksort</t>
   </si>
@@ -45,29 +45,35 @@
     <t>Uitvoertijd</t>
   </si>
   <si>
-    <t>0031339</t>
-  </si>
-  <si>
-    <t>0077577</t>
-  </si>
-  <si>
-    <t>93900</t>
-  </si>
-  <si>
-    <t>87851142</t>
-  </si>
-  <si>
-    <t>238668</t>
-  </si>
-  <si>
-    <t>360813</t>
+    <t>0022081</t>
+  </si>
+  <si>
+    <t>0055842</t>
+  </si>
+  <si>
+    <t>0020023</t>
+  </si>
+  <si>
+    <t>0001801</t>
+  </si>
+  <si>
+    <t>0063514</t>
+  </si>
+  <si>
+    <t>0024611</t>
+  </si>
+  <si>
+    <t>0191527</t>
+  </si>
+  <si>
+    <t>0140817</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,11 +317,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -357,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,9 +403,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,6 +438,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -598,14 +614,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -618,7 +634,7 @@
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -629,7 +645,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickBot="1">
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -648,7 +664,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="32.25" thickBot="1">
+    <row r="3" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>4</v>
@@ -675,23 +691,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="26.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="8">
-        <v>458883</v>
+        <v>462392</v>
       </c>
       <c r="C4" s="9">
-        <v>21671</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+        <v>22059</v>
+      </c>
+      <c r="D4" s="8">
+        <v>12300</v>
+      </c>
+      <c r="E4" s="9">
+        <v>20316</v>
+      </c>
       <c r="F4" s="8">
         <v>5044</v>
       </c>
       <c r="G4" s="9">
-        <v>8730</v>
+        <v>8718</v>
       </c>
       <c r="H4" s="8">
         <v>999000</v>
@@ -700,18 +720,22 @@
         <v>999000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27.75" customHeight="1" thickBot="1">
+    <row r="5" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="9">
-        <v>3751</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
+        <v>3766</v>
+      </c>
+      <c r="D5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3494</v>
+      </c>
       <c r="F5" s="8">
         <v>9976</v>
       </c>
@@ -722,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="9">
-        <v>251175</v>
+        <v>249417</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="16.5" thickBot="1">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -735,19 +759,23 @@
       <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="F6" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -763,24 +791,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
